--- a/static/campaign_sheet_template.xlsx
+++ b/static/campaign_sheet_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leopoldfu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F3FB8-A51D-0344-8664-1CC63213CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050FB8D-5F2C-FB4D-997C-DF0E60A19187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>leopoldfu</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -124,7 +125,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{14F23590-977B-C947-85D0-48FB856209B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <family val="1"/>
+            <charset val="1"/>
+          </rPr>
+          <t>adomain</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft JhengHei UI"/>
+            <family val="1"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -535,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -623,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -636,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -943,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1431,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1603,7 +1630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1663,7 +1690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1746,7 +1773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1789,7 +1816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1862,7 +1889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1935,7 +1962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1978,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2038,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -2118,7 +2145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -2258,7 +2285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -2294,7 +2321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -2307,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -2320,7 +2347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -2333,7 +2360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -2346,7 +2373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -2359,7 +2386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -2377,7 +2404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="499">
   <si>
     <t>廣告活動名稱</t>
   </si>
@@ -15310,6 +15337,14 @@
   </si>
   <si>
     <t>www.url3.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主網域名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.abc.com</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -15317,7 +15352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -15379,6 +15414,21 @@
       <color rgb="FFE394DC"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -15479,6 +15529,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15682,31 +15736,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" customWidth="1"/>
-    <col min="35" max="35" width="18" customWidth="1"/>
-    <col min="36" max="36" width="20.33203125" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" customWidth="1"/>
+    <col min="35" max="35" width="21.33203125" customWidth="1"/>
+    <col min="36" max="36" width="18" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" customWidth="1"/>
+    <col min="38" max="38" width="15.1640625" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="34">
+    <row r="1" spans="1:46" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15717,133 +15771,136 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="29" customHeight="1">
+    <row r="2" spans="1:46" ht="29" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -15851,126 +15908,129 @@
       <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>30</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>100</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <v>0</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AL2" s="12">
         <v>1</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AT2" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="85">
+    <row r="3" spans="1:46" ht="85">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -15978,126 +16038,129 @@
       <c r="C3" s="6">
         <v>0.1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>30</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>100</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>0</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AL3" s="12">
         <v>2</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AS3" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AT3" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="85">
+    <row r="4" spans="1:46" ht="85">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -16105,120 +16168,123 @@
       <c r="C4" s="6">
         <v>0.1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>30</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>100</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>1000</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>0</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6" t="s">
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6" t="s">
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AR4" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR4" s="6" t="s">
+      <c r="AS4" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AT4" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="85">
+    <row r="5" spans="1:46" ht="85">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -16226,120 +16292,123 @@
       <c r="C5" s="6">
         <v>0.1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>30</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>100</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>1000</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AC5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>0</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AI5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6" t="s">
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6" t="s">
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AQ5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR5" s="6" t="s">
+      <c r="AS5" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AT5" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="16">
+    <row r="6" spans="1:46" ht="16">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -16347,110 +16416,113 @@
       <c r="C6" s="6">
         <v>0.1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>4</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>150</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>1</v>
       </c>
       <c r="AA6" s="6">
         <v>1</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AD6" s="6">
         <v>0</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AF6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6" t="s">
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6" t="s">
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="AS6" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AT6" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="16">
+    <row r="7" spans="1:46" ht="16">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -16458,110 +16530,113 @@
       <c r="C7" s="6">
         <v>0.1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>4</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>150</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="V7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="W7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="Y7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Z7" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>1</v>
       </c>
       <c r="AA7" s="6">
         <v>1</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="6">
         <v>0</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AF7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AH7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AI7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6" t="s">
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6" t="s">
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP7" s="6" t="s">
+      <c r="AQ7" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="AR7" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR7" s="6" t="s">
+      <c r="AS7" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AT7" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="16">
+    <row r="8" spans="1:46" ht="16">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -16569,110 +16644,113 @@
       <c r="C8" s="6">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>4</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>150</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="V8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="W8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
       </c>
       <c r="AA8" s="6">
         <v>1</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AD8" s="6">
         <v>0</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AE8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AF8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AH8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AI8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6" t="s">
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6" t="s">
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP8" s="6" t="s">
+      <c r="AQ8" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AQ8" s="6" t="s">
+      <c r="AR8" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR8" s="6" t="s">
+      <c r="AS8" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS8" s="6">
+      <c r="AT8" s="6">
         <v>28575</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="16">
+    <row r="9" spans="1:46" ht="16">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -16680,152 +16758,155 @@
       <c r="C9" s="6">
         <v>0.1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>4</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>150</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="Y9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>1</v>
       </c>
       <c r="AA9" s="6">
         <v>1</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AB9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AD9" s="6">
         <v>0</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AF9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6" t="s">
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6" t="s">
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP9" s="6" t="s">
+      <c r="AQ9" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AQ9" s="6" t="s">
+      <c r="AR9" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AR9" s="6" t="s">
+      <c r="AS9" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AS9" s="6">
+      <c r="AT9" s="6">
         <v>28575</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC2:AC9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD2:AD9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"0,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"品牌知名度,電商網上購買,增加網站流量,開發潛在客戶,網站互動"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X9 AG2:AG9" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y2:Y9 AH2:AH9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"包含,不包含"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="AD2:AF9 V2:W9 Y2:AB9" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N9" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="AE2:AG9 W2:X9 Z2:AC9" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O2:O9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"CPM,CPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"iOS,Android,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"app,web"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"帳戶預設設定,所有轉換,指定轉換目標"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AK2:AK9" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AL2:AL9" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{B3C2E7CF-D348-2A4B-A900-8EDC209D68C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T9" xr:uid="{B3C2E7CF-D348-2A4B-A900-8EDC209D68C7}">
       <formula1>"點擊數,網頁,完成註冊,搜尋,收藏,加入購物車,開始結帳,完成結帳"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{55E88890-C69D-7640-BC89-14ECF74C463D}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{2AF66D32-EB07-304E-A215-0DBA1CDE1147}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{32D5B876-F0AE-9C40-AF4F-6F6C23069AC6}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{2CA0B820-DB4E-BA4D-B992-DE399B34DC68}"/>
-    <hyperlink ref="K5" r:id="rId6" xr:uid="{1683B01A-AF3E-3A4E-B12B-99446585D950}"/>
-    <hyperlink ref="J6" r:id="rId7" xr:uid="{3C1247C5-5D65-CC4F-8DE6-CF4318FA69CA}"/>
-    <hyperlink ref="J7" r:id="rId8" xr:uid="{CD8AF553-1288-D04D-8329-53D0517AB1A8}"/>
-    <hyperlink ref="J8" r:id="rId9" xr:uid="{0FA668D9-ED26-9940-B12F-BFCD49F7A269}"/>
-    <hyperlink ref="J9" r:id="rId10" xr:uid="{B6917509-0D18-A341-8EE0-369CBE420EBF}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{55E88890-C69D-7640-BC89-14ECF74C463D}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{2AF66D32-EB07-304E-A215-0DBA1CDE1147}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{32D5B876-F0AE-9C40-AF4F-6F6C23069AC6}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{2CA0B820-DB4E-BA4D-B992-DE399B34DC68}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{1683B01A-AF3E-3A4E-B12B-99446585D950}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{3C1247C5-5D65-CC4F-8DE6-CF4318FA69CA}"/>
+    <hyperlink ref="K7" r:id="rId8" xr:uid="{CD8AF553-1288-D04D-8329-53D0517AB1A8}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{0FA668D9-ED26-9940-B12F-BFCD49F7A269}"/>
+    <hyperlink ref="K9" r:id="rId10" xr:uid="{B6917509-0D18-A341-8EE0-369CBE420EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
